--- a/vignettes/Alameda.xlsx
+++ b/vignettes/Alameda.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Dropbox (UC Berkeley Biostat)/jsLEMMA/vignettes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB0B8BD-188F-6F47-B573-1F806B7857F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF510B8-DA87-BB47-884F-708A9F31A58F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4220" yWindow="500" windowWidth="29440" windowHeight="17100" activeTab="5" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
+    <workbookView xWindow="4160" yWindow="500" windowWidth="29440" windowHeight="17100" activeTab="1" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -556,33 +556,33 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1071,10 +1071,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5372A5C3-523B-5F40-A7DB-9F78D72AADAB}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1086,18 +1086,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="36"/>
+      <c r="F1" s="38"/>
     </row>
     <row r="2" spans="1:8" s="26" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
@@ -1196,21 +1196,41 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
-        <v>44013</v>
+        <v>43983</v>
       </c>
       <c r="B6" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="D6" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E6" s="3">
         <v>7</v>
       </c>
       <c r="F6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>44027</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>7</v>
+      </c>
+      <c r="F7" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1221,13 +1241,13 @@
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A6" xr:uid="{55857FF0-8ABD-E94F-8530-47F7128019AC}">
-      <formula1>43831</formula1>
-      <formula2>44196</formula2>
-    </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{9B674EB0-0B81-E446-AFB3-06ADC0DD22FE}">
       <formula1>0</formula1>
       <formula2>30</formula2>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A7" xr:uid="{55857FF0-8ABD-E94F-8530-47F7128019AC}">
+      <formula1>43831</formula1>
+      <formula2>44196</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1312,7 +1332,7 @@
   <dimension ref="A1:I305"/>
   <sheetViews>
     <sheetView zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1327,42 +1347,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="39"/>
-      <c r="B1" s="40" t="s">
+      <c r="A1" s="36"/>
+      <c r="B1" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="41" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41" t="s">
+      <c r="E1" s="43"/>
+      <c r="F1" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="41"/>
-      <c r="H1" s="42" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="42"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="2" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="45" t="s">
+      <c r="E2" s="41"/>
+      <c r="F2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="46" t="s">
+      <c r="G2" s="44"/>
+      <c r="H2" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="46"/>
+      <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
@@ -1424,2029 +1444,1973 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
-        <v>43922</v>
+        <v>43919</v>
       </c>
       <c r="B5" s="34">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C5" s="34">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D5" s="35">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E5" s="35">
-        <v>15</v>
-      </c>
-      <c r="F5" s="35">
-        <v>8</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F5" s="35"/>
       <c r="G5" s="35"/>
       <c r="H5" s="34"/>
       <c r="I5" s="34"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
-        <v>43923</v>
+        <v>43920</v>
       </c>
       <c r="B6" s="34">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C6" s="34">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D6" s="35">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" s="35">
-        <v>17</v>
-      </c>
-      <c r="F6" s="35">
-        <v>10</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F6" s="35"/>
       <c r="G6" s="35"/>
       <c r="H6" s="34"/>
       <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
-        <v>43924</v>
+        <v>43921</v>
       </c>
       <c r="B7" s="34">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C7" s="34">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="D7" s="35">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E7" s="35">
-        <v>13</v>
-      </c>
-      <c r="F7" s="35">
-        <v>11</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F7" s="35"/>
       <c r="G7" s="35"/>
       <c r="H7" s="34"/>
       <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
-        <v>43925</v>
+        <v>43922</v>
       </c>
       <c r="B8" s="34">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C8" s="34">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D8" s="35">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E8" s="35">
-        <v>18</v>
-      </c>
-      <c r="F8" s="35">
-        <v>12</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F8" s="35"/>
       <c r="G8" s="35"/>
       <c r="H8" s="34"/>
       <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
-        <v>43926</v>
+        <v>43923</v>
       </c>
       <c r="B9" s="34">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C9" s="34">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D9" s="35">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E9" s="35">
-        <v>13</v>
-      </c>
-      <c r="F9" s="35">
-        <v>12</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F9" s="35"/>
       <c r="G9" s="35"/>
       <c r="H9" s="34"/>
       <c r="I9" s="34"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
-        <v>43927</v>
+        <v>43924</v>
       </c>
       <c r="B10" s="34">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C10" s="34">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D10" s="35">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E10" s="35">
-        <v>19</v>
-      </c>
-      <c r="F10" s="35">
         <v>13</v>
       </c>
+      <c r="F10" s="35"/>
       <c r="G10" s="35"/>
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
-        <v>43928</v>
+        <v>43925</v>
       </c>
       <c r="B11" s="34">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C11" s="34">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D11" s="35">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E11" s="35">
-        <v>25</v>
-      </c>
-      <c r="F11" s="35">
-        <v>14</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F11" s="35"/>
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
       <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
-        <v>43929</v>
+        <v>43926</v>
       </c>
       <c r="B12" s="34">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C12" s="34">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D12" s="35">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E12" s="35">
-        <v>18</v>
-      </c>
-      <c r="F12" s="35">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F12" s="35"/>
       <c r="G12" s="35"/>
       <c r="H12" s="35"/>
       <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
-        <v>43930</v>
+        <v>43927</v>
       </c>
       <c r="B13" s="34">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="34">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D13" s="35">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="35">
-        <v>18</v>
-      </c>
-      <c r="F13" s="35">
-        <v>17</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F13" s="35"/>
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
       <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
-        <v>43931</v>
+        <v>43928</v>
       </c>
       <c r="B14" s="34">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C14" s="34">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D14" s="35">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E14" s="35">
-        <v>26</v>
-      </c>
-      <c r="F14" s="35">
-        <v>26</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F14" s="35"/>
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
       <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
-        <v>43932</v>
+        <v>43929</v>
       </c>
       <c r="B15" s="34">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C15" s="34">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="D15" s="35">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" s="35">
-        <v>19</v>
-      </c>
-      <c r="F15" s="35">
-        <v>26</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F15" s="35"/>
       <c r="G15" s="35"/>
       <c r="H15" s="35"/>
       <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
-        <v>43933</v>
+        <v>43930</v>
       </c>
       <c r="B16" s="34">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C16" s="34">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="D16" s="35">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E16" s="35">
-        <v>21</v>
-      </c>
-      <c r="F16" s="35">
-        <v>26</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F16" s="35"/>
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
       <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
-        <v>43934</v>
+        <v>43931</v>
       </c>
       <c r="B17" s="34">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C17" s="34">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D17" s="35">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E17" s="35">
-        <v>21</v>
-      </c>
-      <c r="F17" s="35">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F17" s="35"/>
       <c r="G17" s="35"/>
       <c r="H17" s="35"/>
       <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
-        <v>43935</v>
+        <v>43932</v>
       </c>
       <c r="B18" s="34">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C18" s="34">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="D18" s="35">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E18" s="35">
-        <v>21</v>
-      </c>
-      <c r="F18" s="35">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F18" s="35"/>
       <c r="G18" s="35"/>
       <c r="H18" s="35"/>
       <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
-        <v>43936</v>
+        <v>43933</v>
       </c>
       <c r="B19" s="34">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C19" s="34">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D19" s="35">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E19" s="35">
-        <v>11</v>
-      </c>
-      <c r="F19" s="35">
-        <v>37</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F19" s="35"/>
       <c r="G19" s="35"/>
       <c r="H19" s="35"/>
       <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="18">
-        <v>43937</v>
+        <v>43934</v>
       </c>
       <c r="B20" s="34">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C20" s="34">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D20" s="35">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E20" s="35">
-        <v>9</v>
-      </c>
-      <c r="F20" s="35">
-        <v>44</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F20" s="35"/>
       <c r="G20" s="35"/>
       <c r="H20" s="35"/>
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="18">
-        <v>43938</v>
+        <v>43935</v>
       </c>
       <c r="B21" s="34">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C21" s="34">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="D21" s="35">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" s="35">
-        <v>18</v>
-      </c>
-      <c r="F21" s="35">
-        <v>44</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F21" s="35"/>
       <c r="G21" s="35"/>
       <c r="H21" s="35"/>
       <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
-        <v>43939</v>
+        <v>43936</v>
       </c>
       <c r="B22" s="34">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" s="34">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="D22" s="35">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E22" s="35">
-        <v>16</v>
-      </c>
-      <c r="F22" s="35">
-        <v>44</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F22" s="35"/>
       <c r="G22" s="35"/>
       <c r="H22" s="35"/>
       <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="18">
-        <v>43940</v>
+        <v>43937</v>
       </c>
       <c r="B23" s="34">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C23" s="34">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D23" s="35">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E23" s="35">
-        <v>5</v>
-      </c>
-      <c r="F23" s="35">
-        <v>44</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F23" s="35"/>
       <c r="G23" s="35"/>
       <c r="H23" s="35"/>
       <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="18">
-        <v>43941</v>
+        <v>43938</v>
       </c>
       <c r="B24" s="34">
         <v>85</v>
       </c>
       <c r="C24" s="34">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="D24" s="35">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E24" s="35">
-        <v>4</v>
-      </c>
-      <c r="F24" s="35">
-        <v>50</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F24" s="35"/>
       <c r="G24" s="35"/>
       <c r="H24" s="35"/>
       <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="18">
-        <v>43942</v>
+        <v>43939</v>
       </c>
       <c r="B25" s="34">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C25" s="34">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D25" s="35">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E25" s="35">
-        <v>9</v>
-      </c>
-      <c r="F25" s="35">
-        <v>51</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F25" s="35"/>
       <c r="G25" s="35"/>
       <c r="H25" s="35"/>
       <c r="I25" s="34"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="18">
-        <v>43943</v>
+        <v>43940</v>
       </c>
       <c r="B26" s="34">
         <v>84</v>
       </c>
       <c r="C26" s="34">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D26" s="35">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E26" s="35">
-        <v>17</v>
-      </c>
-      <c r="F26" s="35">
-        <v>53</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F26" s="35"/>
       <c r="G26" s="35"/>
       <c r="H26" s="35"/>
       <c r="I26" s="34"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="18">
-        <v>43944</v>
+        <v>43941</v>
       </c>
       <c r="B27" s="34">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C27" s="34">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="D27" s="35">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E27" s="35">
-        <v>24</v>
-      </c>
-      <c r="F27" s="35">
-        <v>56</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F27" s="35"/>
       <c r="G27" s="35"/>
       <c r="H27" s="35"/>
       <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="18">
-        <v>43945</v>
+        <v>43942</v>
       </c>
       <c r="B28" s="34">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C28" s="34">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D28" s="35">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E28" s="35">
-        <v>10</v>
-      </c>
-      <c r="F28" s="35">
-        <v>56</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F28" s="35"/>
       <c r="G28" s="35"/>
       <c r="H28" s="35"/>
       <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="18">
-        <v>43946</v>
+        <v>43943</v>
       </c>
       <c r="B29" s="34">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C29" s="34">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D29" s="35">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E29" s="35">
-        <v>6</v>
-      </c>
-      <c r="F29" s="35">
-        <v>56</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F29" s="35"/>
       <c r="G29" s="35"/>
       <c r="H29" s="35"/>
       <c r="I29" s="34"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="18">
-        <v>43947</v>
+        <v>43944</v>
       </c>
       <c r="B30" s="34">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C30" s="34">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="D30" s="35">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E30" s="35">
-        <v>5</v>
-      </c>
-      <c r="F30" s="35">
-        <v>56</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F30" s="35"/>
       <c r="G30" s="35"/>
       <c r="H30" s="35"/>
       <c r="I30" s="34"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="18">
-        <v>43948</v>
+        <v>43945</v>
       </c>
       <c r="B31" s="34">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C31" s="34">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D31" s="35">
         <v>39</v>
       </c>
       <c r="E31" s="35">
-        <v>8</v>
-      </c>
-      <c r="F31" s="35">
-        <v>59</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F31" s="35"/>
       <c r="G31" s="35"/>
       <c r="H31" s="35"/>
       <c r="I31" s="34"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="18">
-        <v>43949</v>
+        <v>43946</v>
       </c>
       <c r="B32" s="34">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C32" s="34">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D32" s="35">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E32" s="35">
-        <v>13</v>
-      </c>
-      <c r="F32" s="35">
-        <v>59</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F32" s="35"/>
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
       <c r="I32" s="34"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="18">
-        <v>43950</v>
+        <v>43947</v>
       </c>
       <c r="B33" s="34">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C33" s="34">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D33" s="35">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E33" s="35">
-        <v>13</v>
-      </c>
-      <c r="F33" s="35">
-        <v>63</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F33" s="35"/>
       <c r="G33" s="35"/>
       <c r="H33" s="35"/>
       <c r="I33" s="34"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="18">
-        <v>43951</v>
+        <v>43948</v>
       </c>
       <c r="B34" s="34">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C34" s="34">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D34" s="35">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E34" s="35">
-        <v>12</v>
-      </c>
-      <c r="F34" s="35">
-        <v>63</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F34" s="35"/>
       <c r="G34" s="35"/>
       <c r="H34" s="35"/>
       <c r="I34" s="34"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="18">
-        <v>43952</v>
+        <v>43949</v>
       </c>
       <c r="B35" s="34">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C35" s="34">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D35" s="35">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E35" s="35">
         <v>13</v>
       </c>
-      <c r="F35" s="35">
-        <v>63</v>
-      </c>
+      <c r="F35" s="35"/>
       <c r="G35" s="35"/>
       <c r="H35" s="35"/>
       <c r="I35" s="34"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="18">
-        <v>43953</v>
+        <v>43950</v>
       </c>
       <c r="B36" s="34">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C36" s="34">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D36" s="35">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E36" s="35">
-        <v>7</v>
-      </c>
-      <c r="F36" s="35">
-        <v>63</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F36" s="35"/>
       <c r="G36" s="35"/>
       <c r="H36" s="35"/>
       <c r="I36" s="34"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="18">
-        <v>43954</v>
+        <v>43951</v>
       </c>
       <c r="B37" s="34">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C37" s="34">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D37" s="35">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E37" s="35">
-        <v>15</v>
-      </c>
-      <c r="F37" s="35">
-        <v>65</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F37" s="35"/>
       <c r="G37" s="35"/>
       <c r="H37" s="35"/>
       <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="18">
-        <v>43955</v>
+        <v>43952</v>
       </c>
       <c r="B38" s="34">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C38" s="34">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D38" s="35">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E38" s="35">
-        <v>15</v>
-      </c>
-      <c r="F38" s="35">
-        <v>65</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F38" s="35"/>
       <c r="G38" s="35"/>
       <c r="H38" s="35"/>
       <c r="I38" s="34"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="18">
-        <v>43956</v>
+        <v>43953</v>
       </c>
       <c r="B39" s="34">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C39" s="34">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D39" s="35">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E39" s="35">
-        <v>14</v>
-      </c>
-      <c r="F39" s="35">
-        <v>69</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F39" s="35"/>
       <c r="G39" s="35"/>
       <c r="H39" s="35"/>
       <c r="I39" s="34"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="18">
-        <v>43957</v>
+        <v>43954</v>
       </c>
       <c r="B40" s="34">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C40" s="34">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D40" s="35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E40" s="35">
-        <v>9</v>
-      </c>
-      <c r="F40" s="35">
-        <v>69</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F40" s="35"/>
       <c r="G40" s="35"/>
       <c r="H40" s="35"/>
       <c r="I40" s="34"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="18">
-        <v>43958</v>
+        <v>43955</v>
       </c>
       <c r="B41" s="34">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C41" s="34">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D41" s="35">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E41" s="35">
-        <v>9</v>
-      </c>
-      <c r="F41" s="35">
-        <v>69</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F41" s="35"/>
       <c r="G41" s="35"/>
       <c r="H41" s="35"/>
       <c r="I41" s="34"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="18">
-        <v>43959</v>
+        <v>43956</v>
       </c>
       <c r="B42" s="34">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C42" s="34">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D42" s="35">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E42" s="35">
-        <v>8</v>
-      </c>
-      <c r="F42" s="35">
-        <v>72</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F42" s="35"/>
       <c r="G42" s="35"/>
       <c r="H42" s="35"/>
       <c r="I42" s="34"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="18">
-        <v>43960</v>
+        <v>43957</v>
       </c>
       <c r="B43" s="34">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C43" s="34">
         <v>58</v>
       </c>
       <c r="D43" s="35">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E43" s="35">
-        <v>11</v>
-      </c>
-      <c r="F43" s="35">
-        <v>75</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F43" s="35"/>
       <c r="G43" s="35"/>
       <c r="H43" s="35"/>
       <c r="I43" s="34"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="18">
-        <v>43961</v>
+        <v>43958</v>
       </c>
       <c r="B44" s="34">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C44" s="34">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D44" s="35">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E44" s="35">
-        <v>4</v>
-      </c>
-      <c r="F44" s="35">
-        <v>75</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F44" s="35"/>
       <c r="G44" s="35"/>
       <c r="H44" s="35"/>
       <c r="I44" s="34"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="18">
-        <v>43962</v>
+        <v>43959</v>
       </c>
       <c r="B45" s="34">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C45" s="34">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D45" s="35">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E45" s="35">
-        <v>13</v>
-      </c>
-      <c r="F45" s="35">
-        <v>75</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F45" s="35"/>
       <c r="G45" s="35"/>
       <c r="H45" s="35"/>
       <c r="I45" s="34"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="18">
-        <v>43963</v>
+        <v>43960</v>
       </c>
       <c r="B46" s="34">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C46" s="34">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D46" s="35">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E46" s="35">
-        <v>12</v>
-      </c>
-      <c r="F46" s="35">
-        <v>80</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F46" s="35"/>
       <c r="G46" s="35"/>
       <c r="H46" s="35"/>
       <c r="I46" s="34"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="18">
-        <v>43964</v>
+        <v>43961</v>
       </c>
       <c r="B47" s="34">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C47" s="34">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D47" s="35">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E47" s="35">
-        <v>12</v>
-      </c>
-      <c r="F47" s="35">
-        <v>80</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F47" s="35"/>
       <c r="G47" s="35"/>
       <c r="H47" s="35"/>
       <c r="I47" s="34"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="18">
-        <v>43965</v>
+        <v>43962</v>
       </c>
       <c r="B48" s="34">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C48" s="34">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D48" s="35">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E48" s="35">
         <v>13</v>
       </c>
-      <c r="F48" s="35">
-        <v>84</v>
-      </c>
+      <c r="F48" s="35"/>
       <c r="G48" s="35"/>
       <c r="H48" s="35"/>
       <c r="I48" s="34"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="18">
-        <v>43966</v>
+        <v>43963</v>
       </c>
       <c r="B49" s="34">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C49" s="34">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="D49" s="35">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E49" s="35">
-        <v>19</v>
-      </c>
-      <c r="F49" s="35">
-        <v>85</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F49" s="35"/>
       <c r="G49" s="35"/>
       <c r="H49" s="35"/>
       <c r="I49" s="34"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="18">
-        <v>43967</v>
+        <v>43964</v>
       </c>
       <c r="B50" s="34">
         <v>81</v>
       </c>
       <c r="C50" s="34">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D50" s="35">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E50" s="35">
-        <v>10</v>
-      </c>
-      <c r="F50" s="35">
-        <v>85</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F50" s="35"/>
       <c r="G50" s="35"/>
       <c r="H50" s="35"/>
       <c r="I50" s="34"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="18">
-        <v>43968</v>
+        <v>43965</v>
       </c>
       <c r="B51" s="34">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C51" s="34">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D51" s="35">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E51" s="35">
-        <v>15</v>
-      </c>
-      <c r="F51" s="35">
-        <v>85</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F51" s="35"/>
       <c r="G51" s="35"/>
       <c r="H51" s="35"/>
       <c r="I51" s="34"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="18">
-        <v>43969</v>
+        <v>43966</v>
       </c>
       <c r="B52" s="34">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C52" s="34">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="D52" s="35">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E52" s="35">
-        <v>10</v>
-      </c>
-      <c r="F52" s="35">
-        <v>88</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F52" s="35"/>
       <c r="G52" s="35"/>
       <c r="H52" s="35"/>
       <c r="I52" s="34"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="18">
-        <v>43970</v>
+        <v>43967</v>
       </c>
       <c r="B53" s="34">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C53" s="34">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="D53" s="35">
         <v>40</v>
       </c>
       <c r="E53" s="35">
-        <v>16</v>
-      </c>
-      <c r="F53" s="35">
-        <v>88</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F53" s="35"/>
       <c r="G53" s="35"/>
       <c r="H53" s="35"/>
       <c r="I53" s="34"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="18">
-        <v>43971</v>
+        <v>43968</v>
       </c>
       <c r="B54" s="34">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C54" s="34">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="D54" s="35">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E54" s="35">
-        <v>24</v>
-      </c>
-      <c r="F54" s="35">
-        <v>88</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F54" s="35"/>
       <c r="G54" s="35"/>
       <c r="H54" s="35"/>
       <c r="I54" s="34"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="18">
-        <v>43972</v>
+        <v>43969</v>
       </c>
       <c r="B55" s="34">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C55" s="34">
-        <v>162</v>
+        <v>51</v>
       </c>
       <c r="D55" s="35">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E55" s="35">
-        <v>23</v>
-      </c>
-      <c r="F55" s="35">
-        <v>90</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F55" s="35"/>
       <c r="G55" s="35"/>
       <c r="H55" s="35"/>
       <c r="I55" s="34"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="18">
-        <v>43973</v>
+        <v>43970</v>
       </c>
       <c r="B56" s="34">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C56" s="34">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="D56" s="35">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E56" s="35">
-        <v>17</v>
-      </c>
-      <c r="F56" s="35">
-        <v>90</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F56" s="35"/>
       <c r="G56" s="35"/>
       <c r="H56" s="35"/>
       <c r="I56" s="34"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="18">
-        <v>43974</v>
+        <v>43971</v>
       </c>
       <c r="B57" s="34">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C57" s="34">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="D57" s="35">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E57" s="35">
-        <v>19</v>
-      </c>
-      <c r="F57" s="35">
-        <v>92</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F57" s="35"/>
       <c r="G57" s="35"/>
       <c r="H57" s="35"/>
       <c r="I57" s="34"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="18">
-        <v>43975</v>
+        <v>43972</v>
       </c>
       <c r="B58" s="34">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C58" s="34">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="D58" s="35">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E58" s="35">
-        <v>11</v>
-      </c>
-      <c r="F58" s="35">
-        <v>93</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F58" s="35"/>
       <c r="G58" s="35"/>
       <c r="H58" s="35"/>
       <c r="I58" s="34"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="18">
-        <v>43976</v>
+        <v>43973</v>
       </c>
       <c r="B59" s="34">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C59" s="34">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D59" s="35">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E59" s="35">
-        <v>20</v>
-      </c>
-      <c r="F59" s="35">
-        <v>93</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F59" s="35"/>
       <c r="G59" s="35"/>
       <c r="H59" s="35"/>
       <c r="I59" s="34"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="18">
-        <v>43977</v>
+        <v>43974</v>
       </c>
       <c r="B60" s="34">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C60" s="34">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D60" s="35">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E60" s="35">
-        <v>20</v>
-      </c>
-      <c r="F60" s="35">
-        <v>97</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F60" s="35"/>
       <c r="G60" s="35"/>
       <c r="H60" s="35"/>
       <c r="I60" s="34"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="18">
-        <v>43978</v>
+        <v>43975</v>
       </c>
       <c r="B61" s="34">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C61" s="34">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D61" s="35">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E61" s="35">
-        <v>10</v>
-      </c>
-      <c r="F61" s="35">
-        <v>97</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F61" s="35"/>
       <c r="G61" s="35"/>
       <c r="H61" s="35"/>
       <c r="I61" s="34"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="18">
-        <v>43979</v>
+        <v>43976</v>
       </c>
       <c r="B62" s="34">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C62" s="34">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D62" s="35">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E62" s="35">
-        <v>13</v>
-      </c>
-      <c r="F62" s="35">
-        <v>102</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F62" s="35"/>
       <c r="G62" s="35"/>
       <c r="H62" s="35"/>
       <c r="I62" s="34"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="18">
-        <v>43980</v>
+        <v>43977</v>
       </c>
       <c r="B63" s="34">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C63" s="34">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D63" s="35">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E63" s="35">
-        <v>12</v>
-      </c>
-      <c r="F63" s="35">
-        <v>103</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F63" s="35"/>
       <c r="G63" s="35"/>
       <c r="H63" s="35"/>
       <c r="I63" s="34"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="18">
-        <v>43981</v>
+        <v>43978</v>
       </c>
       <c r="B64" s="34">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C64" s="34">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D64" s="35">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E64" s="35">
-        <v>12</v>
-      </c>
-      <c r="F64" s="35">
-        <v>103</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F64" s="35"/>
       <c r="G64" s="35"/>
       <c r="H64" s="35"/>
       <c r="I64" s="34"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="22">
-        <v>43982</v>
+        <v>43979</v>
       </c>
       <c r="B65" s="35">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C65" s="34">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="D65" s="35">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E65" s="35">
-        <v>8</v>
-      </c>
-      <c r="F65" s="35">
-        <v>104</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F65" s="35"/>
       <c r="G65" s="35"/>
       <c r="H65" s="35"/>
       <c r="I65" s="34"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="22">
-        <v>43983</v>
+        <v>43980</v>
       </c>
       <c r="B66" s="35">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C66" s="34">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="D66" s="35">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E66" s="35">
-        <v>9</v>
-      </c>
-      <c r="F66" s="35">
-        <v>104</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F66" s="35"/>
       <c r="G66" s="35"/>
       <c r="H66" s="34"/>
       <c r="I66" s="34"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="22">
-        <v>43984</v>
+        <v>43981</v>
       </c>
       <c r="B67" s="35">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C67" s="34">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D67" s="35">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E67" s="35">
-        <v>5</v>
-      </c>
-      <c r="F67" s="35">
-        <v>104</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F67" s="35"/>
       <c r="G67" s="35"/>
       <c r="H67" s="34"/>
       <c r="I67" s="34"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="22">
-        <v>43985</v>
+        <v>43982</v>
       </c>
       <c r="B68" s="35">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C68" s="34">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="D68" s="35">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E68" s="35">
-        <v>6</v>
-      </c>
-      <c r="F68" s="35">
-        <v>104</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F68" s="35"/>
       <c r="G68" s="35"/>
       <c r="H68" s="34"/>
       <c r="I68" s="34"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="22">
-        <v>43986</v>
+        <v>43983</v>
       </c>
       <c r="B69" s="35">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C69" s="34">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="D69" s="35">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E69" s="35">
         <v>9</v>
       </c>
-      <c r="F69" s="35">
-        <v>104</v>
-      </c>
+      <c r="F69" s="35"/>
       <c r="G69" s="35"/>
       <c r="H69" s="34"/>
       <c r="I69" s="34"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="22">
-        <v>43987</v>
+        <v>43984</v>
       </c>
       <c r="B70" s="35">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C70" s="34">
         <v>68</v>
       </c>
       <c r="D70" s="35">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E70" s="35">
-        <v>10</v>
-      </c>
-      <c r="F70" s="35">
-        <v>104</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F70" s="35"/>
       <c r="G70" s="35"/>
       <c r="H70" s="34"/>
       <c r="I70" s="34"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="18">
-        <v>43988</v>
+        <v>43985</v>
       </c>
       <c r="B71" s="34">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C71" s="34">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D71" s="35">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E71" s="35">
-        <v>11</v>
-      </c>
-      <c r="F71" s="35">
-        <v>104</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F71" s="35"/>
       <c r="G71" s="35"/>
       <c r="H71" s="34"/>
       <c r="I71" s="34"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="18">
-        <v>43989</v>
+        <v>43986</v>
       </c>
       <c r="B72" s="34">
+        <v>82</v>
+      </c>
+      <c r="C72" s="34">
         <v>92</v>
       </c>
-      <c r="C72" s="34">
-        <v>74</v>
-      </c>
       <c r="D72" s="35">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E72" s="35">
-        <v>11</v>
-      </c>
-      <c r="F72" s="35">
-        <v>104</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F72" s="35"/>
       <c r="G72" s="35"/>
       <c r="H72" s="34"/>
       <c r="I72" s="34"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="18">
-        <v>43990</v>
+        <v>43987</v>
       </c>
       <c r="B73" s="34">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C73" s="34">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D73" s="35">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E73" s="35">
-        <v>12</v>
-      </c>
-      <c r="F73" s="35">
-        <v>110</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F73" s="35"/>
       <c r="G73" s="35"/>
       <c r="H73" s="34"/>
       <c r="I73" s="34"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="18">
-        <v>43991</v>
+        <v>43988</v>
       </c>
       <c r="B74" s="34">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C74" s="34">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="D74" s="35">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E74" s="35">
-        <v>9</v>
-      </c>
-      <c r="F74" s="35">
-        <v>110</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F74" s="35"/>
       <c r="G74" s="35"/>
       <c r="H74" s="34"/>
       <c r="I74" s="34"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="18">
-        <v>43992</v>
+        <v>43989</v>
       </c>
       <c r="B75" s="34">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C75" s="34">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D75" s="35">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E75" s="35">
         <v>11</v>
       </c>
-      <c r="F75" s="35">
-        <v>110</v>
-      </c>
+      <c r="F75" s="35"/>
       <c r="G75" s="35"/>
       <c r="H75" s="34"/>
       <c r="I75" s="34"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="18">
-        <v>43993</v>
+        <v>43990</v>
       </c>
       <c r="B76" s="34">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C76" s="34">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D76" s="35">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E76" s="35">
-        <v>7</v>
-      </c>
-      <c r="F76" s="35">
-        <v>110</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F76" s="35"/>
       <c r="G76" s="35"/>
       <c r="H76" s="34"/>
       <c r="I76" s="34"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="18">
-        <v>43994</v>
+        <v>43991</v>
       </c>
       <c r="B77" s="34">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C77" s="34">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D77" s="35">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E77" s="35">
-        <v>6</v>
-      </c>
-      <c r="F77" s="35">
-        <v>110</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F77" s="35"/>
       <c r="G77" s="35"/>
       <c r="H77" s="34"/>
       <c r="I77" s="34"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="18">
-        <v>43995</v>
+        <v>43992</v>
       </c>
       <c r="B78" s="34">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C78" s="34">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D78" s="35">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E78" s="35">
-        <v>3</v>
-      </c>
-      <c r="F78" s="35">
-        <v>110</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F78" s="35"/>
       <c r="G78" s="35"/>
       <c r="H78" s="34"/>
       <c r="I78" s="34"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="18">
-        <v>43996</v>
+        <v>43993</v>
       </c>
       <c r="B79" s="34">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C79" s="34">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D79" s="35">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E79" s="35">
-        <v>9</v>
-      </c>
-      <c r="F79" s="35">
-        <v>112</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F79" s="35"/>
       <c r="G79" s="35"/>
       <c r="H79" s="34"/>
       <c r="I79" s="34"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="18">
-        <v>43997</v>
+        <v>43994</v>
       </c>
       <c r="B80" s="34">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C80" s="34">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D80" s="35">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E80" s="35">
-        <v>9</v>
-      </c>
-      <c r="F80" s="35">
-        <v>112</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F80" s="35"/>
       <c r="G80" s="35"/>
       <c r="H80" s="34"/>
       <c r="I80" s="34"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="18">
-        <v>43998</v>
+        <v>43995</v>
       </c>
       <c r="B81" s="34">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C81" s="34">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D81" s="35">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E81" s="35">
-        <v>12</v>
-      </c>
-      <c r="F81" s="35">
-        <v>112</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F81" s="35"/>
       <c r="G81" s="35"/>
       <c r="H81" s="34"/>
       <c r="I81" s="34"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="18">
-        <v>43999</v>
+        <v>43996</v>
       </c>
       <c r="B82" s="34">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C82" s="34">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D82" s="35">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E82" s="35">
-        <v>13</v>
-      </c>
-      <c r="F82" s="35">
-        <v>116</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F82" s="35"/>
       <c r="G82" s="35"/>
       <c r="H82" s="34"/>
       <c r="I82" s="34"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="18">
-        <v>44000</v>
+        <v>43997</v>
       </c>
       <c r="B83" s="34">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C83" s="34">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D83" s="35">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E83" s="35">
-        <v>16</v>
-      </c>
-      <c r="F83" s="35">
-        <v>117</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F83" s="35"/>
       <c r="G83" s="35"/>
       <c r="H83" s="34"/>
       <c r="I83" s="34"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="18">
-        <v>44001</v>
+        <v>43998</v>
       </c>
       <c r="B84" s="34">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C84" s="34">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D84" s="35">
         <v>36</v>
       </c>
       <c r="E84" s="35">
-        <v>20</v>
-      </c>
-      <c r="F84" s="35">
-        <v>118</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F84" s="35"/>
       <c r="G84" s="35"/>
       <c r="H84" s="34"/>
       <c r="I84" s="34"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="18">
-        <v>44002</v>
+        <v>43999</v>
       </c>
       <c r="B85" s="34">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C85" s="34">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D85" s="35">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E85" s="35">
-        <v>12</v>
-      </c>
-      <c r="F85" s="35">
-        <v>119</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F85" s="35"/>
       <c r="G85" s="35"/>
       <c r="H85" s="34"/>
       <c r="I85" s="34"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="18">
-        <v>44003</v>
+        <v>44000</v>
       </c>
       <c r="B86" s="34">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C86" s="34">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D86" s="35">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E86" s="35">
-        <v>12</v>
-      </c>
-      <c r="F86" s="35">
-        <v>119</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F86" s="35"/>
       <c r="G86" s="35"/>
       <c r="H86" s="34"/>
       <c r="I86" s="34"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="18">
-        <v>44004</v>
+        <v>44001</v>
       </c>
       <c r="B87" s="34">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C87" s="34">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D87" s="35">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E87" s="35">
-        <v>8</v>
-      </c>
-      <c r="F87" s="35">
-        <v>121</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F87" s="35"/>
       <c r="G87" s="35"/>
       <c r="H87" s="34"/>
       <c r="I87" s="34"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="18"/>
-      <c r="B88" s="34"/>
-      <c r="C88" s="34"/>
-      <c r="D88" s="35"/>
-      <c r="E88" s="35"/>
+      <c r="A88" s="18">
+        <v>44002</v>
+      </c>
+      <c r="B88" s="34">
+        <v>77</v>
+      </c>
+      <c r="C88" s="34">
+        <v>44</v>
+      </c>
+      <c r="D88" s="35">
+        <v>33</v>
+      </c>
+      <c r="E88" s="35">
+        <v>12</v>
+      </c>
       <c r="F88" s="35"/>
       <c r="G88" s="35"/>
       <c r="H88" s="34"/>
       <c r="I88" s="34"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="18"/>
-      <c r="B89" s="34"/>
-      <c r="C89" s="34"/>
-      <c r="D89" s="35"/>
-      <c r="E89" s="35"/>
+      <c r="A89" s="18">
+        <v>44003</v>
+      </c>
+      <c r="B89" s="34">
+        <v>76</v>
+      </c>
+      <c r="C89" s="34">
+        <v>43</v>
+      </c>
+      <c r="D89" s="35">
+        <v>30</v>
+      </c>
+      <c r="E89" s="35">
+        <v>12</v>
+      </c>
       <c r="F89" s="35"/>
       <c r="G89" s="35"/>
       <c r="H89" s="34"/>
       <c r="I89" s="34"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="18"/>
-      <c r="B90" s="34"/>
-      <c r="C90" s="34"/>
-      <c r="D90" s="35"/>
-      <c r="E90" s="35"/>
+      <c r="A90" s="18">
+        <v>44004</v>
+      </c>
+      <c r="B90" s="34">
+        <v>78</v>
+      </c>
+      <c r="C90" s="34">
+        <v>34</v>
+      </c>
+      <c r="D90" s="35">
+        <v>30</v>
+      </c>
+      <c r="E90" s="35">
+        <v>8</v>
+      </c>
       <c r="F90" s="35"/>
       <c r="G90" s="35"/>
       <c r="H90" s="34"/>
       <c r="I90" s="34"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="18"/>
-      <c r="B91" s="34"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="35"/>
-      <c r="E91" s="35"/>
+      <c r="A91" s="18">
+        <v>44005</v>
+      </c>
+      <c r="B91" s="34">
+        <v>86</v>
+      </c>
+      <c r="C91" s="34">
+        <v>42</v>
+      </c>
+      <c r="D91" s="35">
+        <v>33</v>
+      </c>
+      <c r="E91" s="35">
+        <v>11</v>
+      </c>
       <c r="F91" s="35"/>
       <c r="G91" s="35"/>
       <c r="H91" s="34"/>
       <c r="I91" s="34"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="18"/>
-      <c r="B92" s="34"/>
-      <c r="C92" s="34"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="35"/>
+      <c r="A92" s="18">
+        <v>44006</v>
+      </c>
+      <c r="B92" s="34">
+        <v>89</v>
+      </c>
+      <c r="C92" s="34">
+        <v>41</v>
+      </c>
+      <c r="D92" s="35">
+        <v>31</v>
+      </c>
+      <c r="E92" s="35">
+        <v>9</v>
+      </c>
       <c r="F92" s="35"/>
       <c r="G92" s="35"/>
       <c r="H92" s="34"/>
       <c r="I92" s="34"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="18"/>
-      <c r="B93" s="34"/>
-      <c r="C93" s="34"/>
-      <c r="D93" s="35"/>
-      <c r="E93" s="35"/>
+      <c r="A93" s="18">
+        <v>44007</v>
+      </c>
+      <c r="B93" s="34">
+        <v>91</v>
+      </c>
+      <c r="C93" s="34">
+        <v>49</v>
+      </c>
+      <c r="D93" s="35">
+        <v>34</v>
+      </c>
+      <c r="E93" s="35">
+        <v>10</v>
+      </c>
       <c r="F93" s="35"/>
       <c r="G93" s="35"/>
       <c r="H93" s="34"/>
       <c r="I93" s="34"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="18"/>
-      <c r="B94" s="34"/>
-      <c r="C94" s="34"/>
-      <c r="D94" s="35"/>
-      <c r="E94" s="35"/>
+      <c r="A94" s="18">
+        <v>44008</v>
+      </c>
+      <c r="B94" s="34">
+        <v>92</v>
+      </c>
+      <c r="C94" s="34">
+        <v>41</v>
+      </c>
+      <c r="D94" s="35">
+        <v>35</v>
+      </c>
+      <c r="E94" s="35">
+        <v>9</v>
+      </c>
       <c r="F94" s="35"/>
       <c r="G94" s="35"/>
       <c r="H94" s="34"/>
       <c r="I94" s="34"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="18"/>
-      <c r="B95" s="34"/>
-      <c r="C95" s="34"/>
-      <c r="D95" s="35"/>
-      <c r="E95" s="35"/>
+      <c r="A95" s="18">
+        <v>44009</v>
+      </c>
+      <c r="B95" s="34">
+        <v>99</v>
+      </c>
+      <c r="C95" s="34">
+        <v>40</v>
+      </c>
+      <c r="D95" s="35">
+        <v>36</v>
+      </c>
+      <c r="E95" s="35">
+        <v>11</v>
+      </c>
       <c r="F95" s="35"/>
       <c r="G95" s="35"/>
       <c r="H95" s="34"/>
       <c r="I95" s="34"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="18"/>
-      <c r="B96" s="34"/>
-      <c r="C96" s="34"/>
-      <c r="D96" s="35"/>
-      <c r="E96" s="35"/>
+      <c r="A96" s="18">
+        <v>44010</v>
+      </c>
+      <c r="B96" s="34">
+        <v>102</v>
+      </c>
+      <c r="C96" s="34">
+        <v>39</v>
+      </c>
+      <c r="D96" s="35">
+        <v>35</v>
+      </c>
+      <c r="E96" s="35">
+        <v>10</v>
+      </c>
       <c r="F96" s="35"/>
       <c r="G96" s="35"/>
       <c r="H96" s="34"/>
       <c r="I96" s="34"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="18"/>
-      <c r="B97" s="34"/>
-      <c r="C97" s="34"/>
-      <c r="D97" s="35"/>
-      <c r="E97" s="35"/>
+      <c r="A97" s="18">
+        <v>44011</v>
+      </c>
+      <c r="B97" s="34">
+        <v>111</v>
+      </c>
+      <c r="C97" s="34">
+        <v>35</v>
+      </c>
+      <c r="D97" s="35">
+        <v>38</v>
+      </c>
+      <c r="E97" s="35">
+        <v>6</v>
+      </c>
       <c r="F97" s="35"/>
       <c r="G97" s="35"/>
       <c r="H97" s="34"/>
       <c r="I97" s="34"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="18"/>
-      <c r="B98" s="34"/>
-      <c r="C98" s="34"/>
-      <c r="D98" s="35"/>
-      <c r="E98" s="35"/>
+      <c r="A98" s="18">
+        <v>44012</v>
+      </c>
+      <c r="B98" s="34">
+        <v>116</v>
+      </c>
+      <c r="C98" s="34">
+        <v>41</v>
+      </c>
+      <c r="D98" s="35">
+        <v>43</v>
+      </c>
+      <c r="E98" s="35">
+        <v>6</v>
+      </c>
       <c r="F98" s="35"/>
       <c r="G98" s="35"/>
       <c r="H98" s="34"/>
@@ -5732,10 +5696,10 @@
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="38"/>
+      <c r="D4" s="46"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
@@ -5829,7 +5793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DD5F9C-4676-5749-AB11-9739EC646DB2}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
